--- a/biology/Botanique/Myristica_guadalcanalensis/Myristica_guadalcanalensis.xlsx
+++ b/biology/Botanique/Myristica_guadalcanalensis/Myristica_guadalcanalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myristica guadalcanalensis est une espèce de plantes de la famille des Myristicaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été originellement décrite par James Sinclair, et devait être publiée en 1968[3], mais entre le moment où l’article a été accepté pour publication et la publication définitive de l’article, du nouveau matériel biologique envoyé à James Sinclair ne lui a pas permis de distinguer une nouvelle espèce. Il a donc décidé de supprimer la description en latin de l’espèce afin que le nom Myristica guadalcanalensis ne soit pas valide.
-L’espèce a finalement été décrite par Willem Jan Jacobus Oswald de Wilde en 1994[1] : après l’étude d’encore plus de matériel, il est arrivé à la conclusion que cela méritait sa propre espèce, et il a repris le nom qui avait été proposé par James Sinclair.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été originellement décrite par James Sinclair, et devait être publiée en 1968, mais entre le moment où l’article a été accepté pour publication et la publication définitive de l’article, du nouveau matériel biologique envoyé à James Sinclair ne lui a pas permis de distinguer une nouvelle espèce. Il a donc décidé de supprimer la description en latin de l’espèce afin que le nom Myristica guadalcanalensis ne soit pas valide.
+L’espèce a finalement été décrite par Willem Jan Jacobus Oswald de Wilde en 1994 : après l’étude d’encore plus de matériel, il est arrivé à la conclusion que cela méritait sa propre espèce, et il a repris le nom qui avait été proposé par James Sinclair.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Willem Jan Jacobus Oswald de Wilde, « Taxonomic review of Myristica (Myristicaceae) in the Pacific », Blumea, Leyde et Royaume des Pays-Bas, Nationaal Herbarium Nederland, vol. 38, no 2,‎ 1994, p. 371 (ISSN 0006-5196 et 2212-1676, lire en ligne)</t>
         </is>
